--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -972,7 +972,7 @@
       </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="29" t="n">
-        <v>1515.938</v>
+        <v>3789.125</v>
       </c>
       <c r="E31" s="30" t="n"/>
       <c r="F31" s="30" t="n"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="29" t="n">
-        <v>1998.938</v>
+        <v>4996.397</v>
       </c>
       <c r="E32" s="30" t="n"/>
       <c r="F32" s="30" t="n"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="31" t="n">
-        <v>2529.188</v>
+        <v>6321.77</v>
       </c>
       <c r="E33" s="30" t="n"/>
       <c r="F33" s="30" t="n"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C34" s="27" t="n"/>
       <c r="D34" s="31" t="n">
-        <v>2852.063</v>
+        <v>7128.801</v>
       </c>
       <c r="E34" s="30" t="n"/>
       <c r="F34" s="30" t="n"/>
@@ -1046,15 +1046,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -1046,15 +1046,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -1046,15 +1046,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -1046,15 +1046,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
+++ b/server/LISTAS/ma/SOP MENSULA REFORZADA DISMAY.xlsx
@@ -895,7 +895,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -972,7 +972,7 @@
       </c>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="29" t="n">
-        <v>1515.938</v>
+        <v>6108</v>
       </c>
       <c r="E31" s="30" t="n"/>
       <c r="F31" s="30" t="n"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="29" t="n">
-        <v>1998.938</v>
+        <v>6845</v>
       </c>
       <c r="E32" s="30" t="n"/>
       <c r="F32" s="30" t="n"/>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="31" t="n">
-        <v>2529.188</v>
+        <v>7687</v>
       </c>
       <c r="E33" s="30" t="n"/>
       <c r="F33" s="30" t="n"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C34" s="27" t="n"/>
       <c r="D34" s="31" t="n">
-        <v>2852.063</v>
+        <v>8424</v>
       </c>
       <c r="E34" s="30" t="n"/>
       <c r="F34" s="30" t="n"/>
@@ -1046,15 +1046,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
